--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/销售费用.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/销售费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,375 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>16.62049</v>
-      </c>
-      <c r="C2" t="n">
-        <v>51.98999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.24468</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>18.3026</v>
-      </c>
-      <c r="G2" t="n">
-        <v>114.19013</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.93039</v>
-      </c>
-      <c r="I2" t="n">
-        <v>83.12651</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.30111</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.38023</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1044.83643</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7.67517</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10.67907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>28.9114</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.96984</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.20761</v>
-      </c>
-      <c r="R2" t="n">
-        <v>38.41654</v>
-      </c>
-      <c r="S2" t="n">
-        <v>8.38618</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>12.308</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.20804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.08557</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.50508</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.70484</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>164.43336</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>88.96720000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>15.1359</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.21341</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.00099</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23.4502</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.03632</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>21.88457</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>37.04599</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>31.95049</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.76823</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>75.03546</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>30.65353</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>91.01349</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.07159</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.03223</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>21.2042</v>
-      </c>
-      <c r="C3" t="n">
-        <v>54.97834</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.91648</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>18.98395</v>
-      </c>
-      <c r="G3" t="n">
-        <v>141.44902</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.04511</v>
-      </c>
-      <c r="I3" t="n">
-        <v>97.02455</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.59557</v>
-      </c>
-      <c r="K3" t="n">
-        <v>29.81764</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1235.54143</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8.9842</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.99377</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34.04638</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.08815</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1784</v>
-      </c>
-      <c r="R3" t="n">
-        <v>41.54377</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8.738659999999999</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>15.96894</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.24978</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.07712</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.06071</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3.62908</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>203.86009</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>100.63043</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>18.10042</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11.12835</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.10587</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>25.42304</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.04973</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>28.67772</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>45.86064</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>36.76048</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.10055</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>89.92836</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34.06119</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>99.64885</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7.55832</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.07357</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>28.43354</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80.65761999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.06687</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>18.19887</v>
-      </c>
-      <c r="G4" t="n">
-        <v>167.67587</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.95762</v>
-      </c>
-      <c r="I4" t="n">
-        <v>111.31146</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.92602</v>
-      </c>
-      <c r="K4" t="n">
-        <v>30.79361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1434.04339</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10.18244</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13.42324</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43.85083</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.87054</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.30072</v>
-      </c>
-      <c r="R4" t="n">
-        <v>44.94349</v>
-      </c>
-      <c r="S4" t="n">
-        <v>9.019780000000001</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>19.09655</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.5835900000000001</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.24987</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10.17586</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2.86313</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>243.3385</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>110.90674</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19.48018</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>14.36682</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.08702</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>27.89944</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.22056</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>30.65869</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>46.28585</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>40.65987</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.75061</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>107.2057</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41.4044</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>107.48574</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>8.57809</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.06955</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
